--- a/AppTutorias/Content/Docentes_Udla.xlsx
+++ b/AppTutorias/Content/Docentes_Udla.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Nombre</t>
   </si>
@@ -47,85 +47,28 @@
     <t>Celular</t>
   </si>
   <si>
-    <t>Tapia</t>
-  </si>
-  <si>
-    <t>andres.tapia@udla.edu.ec</t>
-  </si>
-  <si>
-    <t>Maria</t>
-  </si>
-  <si>
-    <t>Pepa</t>
-  </si>
-  <si>
-    <t>Loza</t>
-  </si>
-  <si>
-    <t>Yanez</t>
-  </si>
-  <si>
-    <t>Algo</t>
-  </si>
-  <si>
-    <t>anita.yanez@udla.edu.ec</t>
-  </si>
-  <si>
-    <t>ANITA</t>
-  </si>
-  <si>
-    <t>ALEJANDRO</t>
-  </si>
-  <si>
-    <t>TAPIA</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>PEPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANDRES </t>
-  </si>
-  <si>
-    <t>CARLOS</t>
-  </si>
-  <si>
-    <t>GRILLO</t>
-  </si>
-  <si>
-    <t>ANGELICA</t>
-  </si>
-  <si>
-    <t>ANABEL</t>
-  </si>
-  <si>
-    <t>andres.ll@udla.edu.ec</t>
-  </si>
-  <si>
-    <t>andres.t@udla.edu.ec</t>
-  </si>
-  <si>
-    <t>pepe.grillo@udla.edu.ec</t>
-  </si>
-  <si>
-    <t>SANTIAGO</t>
-  </si>
-  <si>
-    <t>VILLARREAL</t>
-  </si>
-  <si>
-    <t>RAMIRO</t>
-  </si>
-  <si>
-    <t>NARVAEZ</t>
-  </si>
-  <si>
     <t>|</t>
   </si>
   <si>
-    <t>santiago.villarreal@udla.edu.ec</t>
+    <t>EDDY</t>
+  </si>
+  <si>
+    <t>ARMAS</t>
+  </si>
+  <si>
+    <t>eddy.armas@udla.edu.ec</t>
+  </si>
+  <si>
+    <t>VERONICA</t>
+  </si>
+  <si>
+    <t>FALCONI</t>
+  </si>
+  <si>
+    <t>veronica.falconi@udla.edu.ec</t>
+  </si>
+  <si>
+    <t>0502395270</t>
   </si>
 </sst>
 </file>
@@ -195,12 +138,15 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -486,7 +432,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -521,157 +467,62 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2">
+        <v>1711715803</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2">
-        <v>1725031965</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="2">
-        <v>978654778</v>
-      </c>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1720765533</v>
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="2">
-        <v>978654748</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1272737373</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="2">
-        <v>978654578</v>
-      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5">
-        <v>1874578965</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="2">
-        <v>988865478</v>
-      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6">
-        <v>1874589658</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2">
-        <v>987458745</v>
-      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7">
-        <v>1713980074</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="2">
-        <v>983512051</v>
-      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="18" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K18" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
     <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
-    <hyperlink ref="F6" r:id="rId5"/>
-    <hyperlink ref="F7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>